--- a/Software Benchmarking - Matrix Multiplication/numpy_int_matrix_mult.xlsx
+++ b/Software Benchmarking - Matrix Multiplication/numpy_int_matrix_mult.xlsx
@@ -396,7 +396,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>6.437301635742188E-06</v>
+        <v>6.198883056640625E-06</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -404,7 +404,7 @@
         <v>10</v>
       </c>
       <c r="B3">
-        <v>5.7220458984375E-06</v>
+        <v>5.483627319335938E-06</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -412,7 +412,7 @@
         <v>100</v>
       </c>
       <c r="B4">
-        <v>0.0004580020904541016</v>
+        <v>0.0004391670227050781</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -420,7 +420,7 @@
         <v>500</v>
       </c>
       <c r="B5">
-        <v>0.07385015487670898</v>
+        <v>0.06713366508483887</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -428,7 +428,7 @@
         <v>1000</v>
       </c>
       <c r="B6">
-        <v>0.7249133586883545</v>
+        <v>0.6586453914642334</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -436,7 +436,7 @@
         <v>1500</v>
       </c>
       <c r="B7">
-        <v>2.874640464782715</v>
+        <v>2.751649141311646</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -444,7 +444,7 @@
         <v>1750</v>
       </c>
       <c r="B8">
-        <v>6.808517694473267</v>
+        <v>5.469060659408569</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -452,7 +452,7 @@
         <v>2000</v>
       </c>
       <c r="B9">
-        <v>17.85291862487793</v>
+        <v>17.134361743927</v>
       </c>
     </row>
   </sheetData>
